--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90031DC4-4D1A-4FB9-A346-AB1402AB5B31}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204678FE-1C36-4D72-9D84-A8D37193FA0B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -294,12 +294,6 @@
     <t>{,, eol, )}</t>
   </si>
   <si>
-    <t xml:space="preserve">8. &lt;statement&gt; → if &lt;expression&gt; then EOL &lt;statement&gt; else EOL &lt;statement&gt; end EOL   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. &lt;statement&gt; → while &lt;expression&gt; do EOL &lt;statement&gt; end EOL  </t>
-  </si>
-  <si>
     <t xml:space="preserve">10. &lt;statement&gt; → ID &lt;def_args&gt; EOL &lt;statement&gt;  </t>
   </si>
   <si>
@@ -379,6 +373,12 @@
   </si>
   <si>
     <t>{string id, float, int}</t>
+  </si>
+  <si>
+    <t>8. &lt;statement&gt; → if &lt;expression&gt; then EOL &lt;statement&gt; else EOL &lt;statement&gt; end EOL  &lt;statement&gt;</t>
+  </si>
+  <si>
+    <t>9. &lt;statement&gt; → while &lt;expression&gt; do EOL &lt;statement&gt; end EOL  &lt;statement&gt;</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +489,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -554,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -594,6 +600,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -910,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D8F368-A862-40F3-80B0-4AA651053DE9}">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1098,7 @@
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>1</v>
@@ -1489,6 +1498,48 @@
       <c r="G10" t="s">
         <v>84</v>
       </c>
+      <c r="I10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19">
+        <v>13</v>
+      </c>
+      <c r="L10" s="19">
+        <v>13</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19">
+        <v>13</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19">
+        <v>12</v>
+      </c>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19">
+        <v>13</v>
+      </c>
+      <c r="AF10" s="19">
+        <v>13</v>
+      </c>
+      <c r="AG10" s="19">
+        <v>13</v>
+      </c>
+      <c r="AH10" s="19"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1515,7 +1566,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -1532,7 +1583,7 @@
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>40</v>
@@ -1549,7 +1600,7 @@
         <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
         <v>79</v>
@@ -1566,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
         <v>66</v>
@@ -1594,7 +1645,7 @@
         <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -1611,10 +1662,10 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1639,7 +1690,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
         <v>79</v>
@@ -1656,7 +1707,7 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -1673,7 +1724,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -1690,7 +1741,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
@@ -1707,7 +1758,7 @@
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -1724,7 +1775,7 @@
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
         <v>61</v>
@@ -1741,7 +1792,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
@@ -1758,7 +1809,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s">
         <v>48</v>
@@ -1775,7 +1826,7 @@
         <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
         <v>49</v>
@@ -1792,7 +1843,7 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -1809,7 +1860,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
         <v>80</v>
@@ -1837,7 +1888,7 @@
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
         <v>84</v>
@@ -1854,7 +1905,7 @@
         <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -1871,10 +1922,10 @@
         <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1891,7 +1942,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G36" t="s">
         <v>51</v>
@@ -1900,7 +1951,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
         <v>84</v>
@@ -1908,7 +1959,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G39" t="s">
         <v>83</v>
@@ -1916,7 +1967,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
         <v>81</v>
@@ -1924,7 +1975,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
         <v>79</v>
@@ -1932,7 +1983,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G42" t="s">
         <v>82</v>

--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SharedProjects\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204678FE-1C36-4D72-9D84-A8D37193FA0B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA8D389-B792-470A-9EE5-B69A16BA8AC3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -246,9 +246,6 @@
     <t>eol</t>
   </si>
   <si>
-    <t>{id, while if, def}</t>
-  </si>
-  <si>
     <t>{id, (}</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>33. &lt;value&gt; → STRING</t>
   </si>
   <si>
-    <t>{id, while, if, $}</t>
-  </si>
-  <si>
     <t>{string, id, float, int, (, eol}</t>
   </si>
   <si>
@@ -379,19 +373,35 @@
   </si>
   <si>
     <t>9. &lt;statement&gt; → while &lt;expression&gt; do EOL &lt;statement&gt; end EOL  &lt;statement&gt;</t>
+  </si>
+  <si>
+    <t>34.  &lt;statenemt&gt; → EOL &lt;statement&gt;</t>
+  </si>
+  <si>
+    <t>{id, while if, def, eol}</t>
+  </si>
+  <si>
+    <t>{id, while, if, $, eol}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -569,38 +579,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,23 +933,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D8F368-A862-40F3-80B0-4AA651053DE9}">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="89.5703125" customWidth="1"/>
-    <col min="7" max="7" width="67.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" customWidth="1"/>
+    <col min="3" max="3" width="65.68359375" customWidth="1"/>
+    <col min="4" max="4" width="17.68359375" customWidth="1"/>
+    <col min="6" max="6" width="89.578125" customWidth="1"/>
+    <col min="7" max="7" width="67.15625" customWidth="1"/>
+    <col min="9" max="9" width="15.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1047,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -1051,7 +1067,9 @@
       <c r="K2" s="6">
         <v>2</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="21">
+        <v>2</v>
+      </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -1081,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1089,16 +1107,16 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>1</v>
@@ -1137,7 +1155,7 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1163,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
         <v>66</v>
@@ -1185,7 +1203,7 @@
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1211,7 +1229,9 @@
       <c r="K5" s="9">
         <v>10</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="20">
+        <v>34</v>
+      </c>
       <c r="M5" s="9">
         <v>11</v>
       </c>
@@ -1245,7 +1265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -1253,16 +1273,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>4</v>
@@ -1313,7 +1333,7 @@
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -1321,16 +1341,16 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>5</v>
@@ -1375,7 +1395,7 @@
       </c>
       <c r="AH7" s="11"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1383,10 +1403,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>7</v>
@@ -1423,7 +1443,7 @@
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1431,10 +1451,10 @@
         <v>28</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1479,7 +1499,7 @@
       </c>
       <c r="AH9" s="13"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1487,16 +1507,16 @@
         <v>29</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>68</v>
@@ -1541,7 +1561,7 @@
       </c>
       <c r="AH10" s="19"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1552,10 +1572,10 @@
         <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1566,13 +1586,13 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -1580,16 +1600,16 @@
         <v>29</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
@@ -1597,16 +1617,16 @@
         <v>29</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1617,13 +1637,13 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +1654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1645,13 +1665,13 @@
         <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1662,13 +1682,13 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1679,7 +1699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1690,13 +1710,13 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1707,13 +1727,13 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1724,13 +1744,13 @@
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -1741,13 +1761,13 @@
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1758,13 +1778,13 @@
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -1775,13 +1795,13 @@
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -1792,13 +1812,13 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -1809,13 +1829,13 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -1826,13 +1846,13 @@
         <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1843,13 +1863,13 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -1860,13 +1880,13 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -1877,7 +1897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -1888,13 +1908,13 @@
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -1902,16 +1922,16 @@
         <v>29</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -1919,16 +1939,16 @@
         <v>29</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="16" t="s">
         <v>64</v>
       </c>
@@ -1936,60 +1956,69 @@
         <v>29</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="18"/>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="17"/>
       <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" t="s">
         <v>106</v>
       </c>
-      <c r="G37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40" t="s">
         <v>107</v>
       </c>
-      <c r="G39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" t="s">
         <v>108</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SharedProjects\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA8D389-B792-470A-9EE5-B69A16BA8AC3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0267D83C-24C7-42E8-9663-04DF0E94D0D1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -936,7 +936,7 @@
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SharedProjects\IFJ18\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0267D83C-24C7-42E8-9663-04DF0E94D0D1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B23943-4ABC-4B84-935D-6642A95AC536}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -192,27 +192,6 @@
     <t>{$}</t>
   </si>
   <si>
-    <t xml:space="preserve">1. &lt;prog&gt; → def ID &lt;params&gt; EOL &lt;statement&gt; end EOL    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. &lt;prog&gt; → &lt;statement&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. &lt;params&gt; → (&lt;params&gt;)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. &lt;params&gt; → ID &lt;params_n&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. &lt;params&gt; → ε  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. &lt;params_n&gt; → , ID &lt;params_n&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. &lt;params_n&gt; → ε  </t>
-  </si>
-  <si>
     <t>PREDICT</t>
   </si>
   <si>
@@ -231,9 +210,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>{end, $, else}</t>
-  </si>
-  <si>
     <t>&lt;expression&gt;</t>
   </si>
   <si>
@@ -285,123 +261,146 @@
     <t>{eol, )}</t>
   </si>
   <si>
-    <t>{then, do, eol}</t>
-  </si>
-  <si>
-    <t>{,, eol, )}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. &lt;statement&gt; → ID &lt;def_args&gt; EOL &lt;statement&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. &lt;statement&gt; → ε  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. &lt;def_args&gt; → = &lt;define&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. &lt;def_args&gt; → &lt;args&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. &lt;define&gt; → ID &lt;args&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. &lt;define&gt; → print &lt;args&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16. &lt;define&gt; → inputs &lt;args&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17. &lt;define&gt; → inputi &lt;args&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18. &lt;define&gt; → inputf &lt;args&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19. &lt;define&gt; → lenght &lt;args&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20. &lt;define&gt; → substr &lt;args&gt;   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21. &lt;define&gt; → ord &lt;args&gt;    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. &lt;define&gt; → chr &lt;args&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23. &lt;define&gt; → &lt;expression&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24. &lt;define&gt; → ε  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25. &lt;args&gt; → ε  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26. &lt;args&gt; → (&lt;args&gt;)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27. &lt;args&gt; → &lt;value&gt; &lt;args_n&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28. &lt;args_n&gt; → , &lt;value&gt; &lt;args_n&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29. &lt;args_n&gt; → ε   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30. &lt;value&gt; → INT  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31. &lt;value&gt; → FLOAT  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32. &lt;value&gt; → ID  </t>
-  </si>
-  <si>
-    <t>33. &lt;value&gt; → STRING</t>
-  </si>
-  <si>
-    <t>{string, id, float, int, (, eol}</t>
-  </si>
-  <si>
-    <t>{string id, float, int}</t>
-  </si>
-  <si>
-    <t>8. &lt;statement&gt; → if &lt;expression&gt; then EOL &lt;statement&gt; else EOL &lt;statement&gt; end EOL  &lt;statement&gt;</t>
-  </si>
-  <si>
-    <t>9. &lt;statement&gt; → while &lt;expression&gt; do EOL &lt;statement&gt; end EOL  &lt;statement&gt;</t>
-  </si>
-  <si>
-    <t>34.  &lt;statenemt&gt; → EOL &lt;statement&gt;</t>
-  </si>
-  <si>
     <t>{id, while if, def, eol}</t>
   </si>
   <si>
-    <t>{id, while, if, $, eol}</t>
+    <t>1. PROG → def id PARAMS eol STATEMENT end eol PROG</t>
+  </si>
+  <si>
+    <t>2. PROG → STATEMENT eol PROG</t>
+  </si>
+  <si>
+    <t>3. PROG → ε</t>
+  </si>
+  <si>
+    <t>4. PARAMS → ( PARAMS )</t>
+  </si>
+  <si>
+    <t>5. PARAMS → id PARAMS_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. PARAMS → ε </t>
+  </si>
+  <si>
+    <t>7. PARAMS_N → , id PARAMS_N</t>
+  </si>
+  <si>
+    <t>8. PARAMS_N → ε</t>
+  </si>
+  <si>
+    <t>9. STATEMENT → if EXPRESSION then eol STATEMENT else eol STATEMENT end</t>
+  </si>
+  <si>
+    <t>10. STATEMENT → while EXPRESSION do eol STATEMENT end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. STATEMENT → id DEF_ARGS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. DEF_ARGS → = DEFINE  </t>
+  </si>
+  <si>
+    <t>14. DEF_ARGS → ARGS</t>
+  </si>
+  <si>
+    <t>15. DEFINE → id ARGS</t>
+  </si>
+  <si>
+    <t>16. DEFINE → print ARGS</t>
+  </si>
+  <si>
+    <t>17. DEFINE → inputs ARGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. DEFINE → inputi ARGS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. DEFINE → inputf ARGS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. DEFINE → lenght ARGS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. DEFINE → substr ARGS   </t>
+  </si>
+  <si>
+    <t>22. DEFINE → ord ARGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. DEFINE → chr ARGS  </t>
+  </si>
+  <si>
+    <t>24. DEFINE → EXPRESSION</t>
+  </si>
+  <si>
+    <t>25. DEFINE → ε</t>
+  </si>
+  <si>
+    <t>26. ARGS → ε</t>
+  </si>
+  <si>
+    <t>27. ARGS → ( ARGS )</t>
+  </si>
+  <si>
+    <t>28. ARGS → VALUE ARGS_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29. ARGS_N → , VALUE ARGS_N  </t>
+  </si>
+  <si>
+    <t>30. ARGS_N → ε</t>
+  </si>
+  <si>
+    <t>31. VALUE → int</t>
+  </si>
+  <si>
+    <t>32. VALUE → float</t>
+  </si>
+  <si>
+    <t>33. VALUE → id</t>
+  </si>
+  <si>
+    <t>34.  VALUE → string</t>
+  </si>
+  <si>
+    <t>12. STATEMENT → ε</t>
+  </si>
+  <si>
+    <t>{end, eol, else}</t>
+  </si>
+  <si>
+    <t>{then, do, end, eol, else}</t>
+  </si>
+  <si>
+    <t>{eol, end, else}</t>
+  </si>
+  <si>
+    <t>{eol, end, else, )}</t>
+  </si>
+  <si>
+    <t>{,, eol, end, else, )}</t>
+  </si>
+  <si>
+    <t>{id, while, if, eol}</t>
+  </si>
+  <si>
+    <t>{string, id, float, int, (, eol, end, else}</t>
+  </si>
+  <si>
+    <t>RULES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,12 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,54 +563,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,113 +924,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D8F368-A862-40F3-80B0-4AA651053DE9}">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.15625" customWidth="1"/>
-    <col min="3" max="3" width="65.68359375" customWidth="1"/>
-    <col min="4" max="4" width="17.68359375" customWidth="1"/>
-    <col min="6" max="6" width="89.578125" customWidth="1"/>
-    <col min="7" max="7" width="67.15625" customWidth="1"/>
-    <col min="9" max="9" width="15.41796875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="70.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="14" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,59 +1044,59 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>2</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="4">
         <v>2</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4">
         <v>2</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4">
         <v>2</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1107,55 +1104,55 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>6</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5">
         <v>4</v>
       </c>
-      <c r="L3" s="7">
-        <v>5</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7">
-        <v>5</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="O3" s="5">
+        <v>6</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1163,47 +1160,53 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
+        <v>8</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>8</v>
+      </c>
+      <c r="P4" s="6">
         <v>7</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8">
-        <v>7</v>
-      </c>
-      <c r="P4" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1214,188 +1217,190 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7">
+        <v>12</v>
+      </c>
+      <c r="M5" s="7">
+        <v>12</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7">
+        <v>9</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7">
+        <v>12</v>
+      </c>
+      <c r="T5" s="7">
+        <v>10</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9">
-        <v>10</v>
-      </c>
-      <c r="L5" s="20">
-        <v>34</v>
-      </c>
-      <c r="M5" s="9">
-        <v>11</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9">
-        <v>8</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9">
-        <v>11</v>
-      </c>
-      <c r="T5" s="9">
-        <v>9</v>
-      </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10">
-        <v>14</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8">
+        <v>15</v>
+      </c>
+      <c r="L6" s="8">
+        <v>25</v>
+      </c>
+      <c r="M6" s="8">
+        <v>25</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8">
+        <v>25</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8">
+        <v>16</v>
+      </c>
+      <c r="X6" s="8">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>21</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>22</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>23</v>
+      </c>
+      <c r="AE6" s="8">
         <v>24</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10">
-        <v>15</v>
-      </c>
-      <c r="X6" s="10">
-        <v>16</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>18</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>19</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>20</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>21</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>22</v>
-      </c>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>28</v>
+      </c>
+      <c r="L7" s="9">
+        <v>26</v>
+      </c>
+      <c r="M7" s="9">
+        <v>26</v>
+      </c>
+      <c r="N7" s="9">
         <v>27</v>
       </c>
-      <c r="L7" s="11">
-        <v>25</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11">
+      <c r="O7" s="9">
         <v>26</v>
       </c>
-      <c r="O7" s="11">
-        <v>25</v>
-      </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11">
-        <v>27</v>
-      </c>
-      <c r="AF7" s="11">
-        <v>27</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>27</v>
-      </c>
-      <c r="AH7" s="11"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9">
+        <v>26</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>28</v>
+      </c>
+      <c r="AH7" s="9"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1403,618 +1408,626 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12">
-        <v>29</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12">
-        <v>29</v>
-      </c>
-      <c r="P8" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10">
+        <v>30</v>
+      </c>
+      <c r="M8" s="10">
+        <v>30</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10">
+        <v>30</v>
+      </c>
+      <c r="P8" s="10">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10">
+        <v>30</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>76</v>
+      <c r="C9" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <v>33</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="11">
         <v>32</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13">
-        <v>30</v>
-      </c>
-      <c r="AF9" s="13">
-        <v>31</v>
-      </c>
-      <c r="AG9" s="13">
-        <v>33</v>
-      </c>
-      <c r="AH9" s="13"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="AG9" s="11">
+        <v>34</v>
+      </c>
+      <c r="AH9" s="11"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>77</v>
+      <c r="C10" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19">
+        <v>51</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17">
+        <v>14</v>
+      </c>
+      <c r="L10" s="17">
+        <v>14</v>
+      </c>
+      <c r="M10" s="17">
+        <v>14</v>
+      </c>
+      <c r="N10" s="17">
+        <v>14</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17">
+        <v>14</v>
+      </c>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17">
         <v>13</v>
       </c>
-      <c r="L10" s="19">
-        <v>13</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19">
-        <v>13</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19">
-        <v>12</v>
-      </c>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19">
-        <v>13</v>
-      </c>
-      <c r="AF10" s="19">
-        <v>13</v>
-      </c>
-      <c r="AG10" s="19">
-        <v>13</v>
-      </c>
-      <c r="AH10" s="19"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17">
+        <v>14</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>14</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>14</v>
+      </c>
+      <c r="AH10" s="17"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>79</v>
+      <c r="C14" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F32" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
         <v>101</v>
       </c>
-      <c r="G32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
         <v>102</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
         <v>103</v>
       </c>
-      <c r="G34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="18"/>
-      <c r="F36" t="s">
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="F37" t="s">
         <v>104</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="17"/>
-      <c r="F37" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
         <v>105</v>
       </c>
-      <c r="G37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F39" t="s">
+      <c r="G38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
         <v>106</v>
       </c>
-      <c r="G39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
         <v>107</v>
       </c>
-      <c r="G40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
         <v>108</v>
       </c>
-      <c r="G41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>109</v>
       </c>
-      <c r="G42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F44" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" t="s">
-        <v>79</v>
+      <c r="G43" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B23943-4ABC-4B84-935D-6642A95AC536}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85F0C6A-C626-4983-8568-15672B52A6EF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D8F368-A862-40F3-80B0-4AA651053DE9}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85F0C6A-C626-4983-8568-15672B52A6EF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1553D80C-8F98-480A-B415-55ED30FD8770}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -388,6 +388,61 @@
   </si>
   <si>
     <t>RULES</t>
+  </si>
+  <si>
+    <t>handled via precedent table</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rule 15 for ID of user's function,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> handle via precedent table for ID of a variable</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -499,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -559,11 +614,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -609,6 +763,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D8F368-A862-40F3-80B0-4AA651053DE9}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1450,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1283,8 +1473,8 @@
         <v>4</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="8">
-        <v>15</v>
+      <c r="K6" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="L6" s="8">
         <v>25</v>
@@ -1327,11 +1517,11 @@
       <c r="AD6" s="8">
         <v>23</v>
       </c>
-      <c r="AE6" s="8">
-        <v>24</v>
-      </c>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
+      <c r="AE6" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="22"/>
       <c r="AH6" s="8"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1594,7 +1784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1604,6 +1794,12 @@
       <c r="C12" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="I12" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1621,6 +1817,10 @@
       <c r="G13" t="s">
         <v>37</v>
       </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1638,6 +1838,10 @@
       <c r="G14" t="s">
         <v>40</v>
       </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1655,6 +1859,7 @@
       <c r="G15" t="s">
         <v>70</v>
       </c>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2031,6 +2236,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="I12:L13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1553D80C-8F98-480A-B415-55ED30FD8770}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90935691-40B8-4BE8-97DC-3E0856913DEE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -764,6 +764,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,28 +782,19 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="21" t="s">
         <v>120</v>
       </c>
       <c r="L6" s="8">
@@ -1517,11 +1517,11 @@
       <c r="AD6" s="8">
         <v>23</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="22"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="25"/>
       <c r="AH6" s="8"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1797,9 +1797,9 @@
       <c r="I12" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1817,9 +1817,9 @@
       <c r="G13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -1838,10 +1838,10 @@
       <c r="G14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1859,7 +1859,7 @@
       <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">

--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90935691-40B8-4BE8-97DC-3E0856913DEE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C9B28-2162-4F2B-872C-C3EC8A762DE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="130">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -60,9 +60,6 @@
     <t>def</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -388,12 +385,6 @@
   </si>
   <si>
     <t>RULES</t>
-  </si>
-  <si>
-    <t>handled via precedent table</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <r>
@@ -444,6 +435,39 @@
       <t xml:space="preserve"> handle via precedent table for ID of a variable</t>
     </r>
   </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>PARAMS</t>
+  </si>
+  <si>
+    <t>PARAMS_N</t>
+  </si>
+  <si>
+    <t>STATEMENT_N</t>
+  </si>
+  <si>
+    <t>STATEMENT</t>
+  </si>
+  <si>
+    <t>DEF_ARGS</t>
+  </si>
+  <si>
+    <t>DEFINE</t>
+  </si>
+  <si>
+    <t>ARGS</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>ARGS_N</t>
+  </si>
 </sst>
 </file>
 
@@ -468,7 +492,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,31 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,18 +543,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -612,43 +606,6 @@
         <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,88 +674,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D8F368-A862-40F3-80B0-4AA651053DE9}">
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,1115 +1048,1021 @@
     <col min="6" max="6" width="70.42578125" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="12" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="V1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="12" t="s">
+      <c r="W1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="X1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="Z1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AA1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
       <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
+        <v>32</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <v>2</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4">
+      <c r="O2" s="3">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3">
         <v>2</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3">
+        <v>3</v>
+      </c>
+      <c r="U2" s="3">
         <v>2</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5">
+        <v>115</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <v>4</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
         <v>5</v>
       </c>
-      <c r="L3" s="5">
-        <v>6</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5">
-        <v>4</v>
-      </c>
-      <c r="O3" s="5">
-        <v>6</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6">
-        <v>8</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6">
-        <v>8</v>
-      </c>
-      <c r="P4" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>12</v>
+      </c>
+      <c r="O4" s="3">
+        <v>13</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
+        <v>12</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
+        <v>13</v>
+      </c>
+      <c r="U4" s="3">
+        <v>12</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7">
+        <v>74</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
         <v>11</v>
       </c>
-      <c r="L5" s="7">
-        <v>12</v>
-      </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
+        <v>8</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4">
         <v>9</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7">
-        <v>12</v>
-      </c>
-      <c r="T5" s="7">
-        <v>10</v>
-      </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-    </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>7</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>112</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" s="8">
-        <v>25</v>
-      </c>
-      <c r="M6" s="8">
-        <v>25</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8">
-        <v>25</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8">
-        <v>16</v>
-      </c>
-      <c r="X6" s="8">
-        <v>17</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>19</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>20</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>21</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>22</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>23</v>
-      </c>
-      <c r="AE6" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="8"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
       <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9">
-        <v>28</v>
-      </c>
-      <c r="L7" s="9">
-        <v>26</v>
-      </c>
-      <c r="M7" s="9">
-        <v>26</v>
-      </c>
-      <c r="N7" s="9">
-        <v>27</v>
-      </c>
-      <c r="O7" s="9">
-        <v>26</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9">
-        <v>26</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9">
-        <v>28</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>28</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>28</v>
-      </c>
-      <c r="AH7" s="9"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <v>14</v>
+      </c>
+      <c r="X7" s="4">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10">
-        <v>30</v>
-      </c>
-      <c r="M8" s="10">
-        <v>30</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10">
-        <v>30</v>
-      </c>
-      <c r="P8" s="10">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10">
-        <v>30</v>
-      </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>16</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>18</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>17</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <v>33</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11">
-        <v>31</v>
-      </c>
-      <c r="AF9" s="11">
-        <v>32</v>
-      </c>
-      <c r="AG9" s="11">
-        <v>34</v>
-      </c>
-      <c r="AH9" s="11"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>21</v>
+      </c>
+      <c r="L9" s="4">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4">
+        <v>19</v>
+      </c>
+      <c r="N9" s="4">
+        <v>19</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>21</v>
+      </c>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>69</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17">
-        <v>14</v>
-      </c>
-      <c r="L10" s="17">
-        <v>14</v>
-      </c>
-      <c r="M10" s="17">
-        <v>14</v>
-      </c>
-      <c r="N10" s="17">
-        <v>14</v>
-      </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17">
-        <v>14</v>
-      </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17">
-        <v>13</v>
-      </c>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17">
-        <v>14</v>
-      </c>
-      <c r="AF10" s="17">
-        <v>14</v>
-      </c>
-      <c r="AG10" s="17">
-        <v>14</v>
-      </c>
-      <c r="AH10" s="17"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>26</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>25</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>23</v>
+      </c>
+      <c r="N11" s="4">
+        <v>23</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>86</v>
       </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="15" t="s">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>102</v>
       </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="F37" t="s">
         <v>103</v>
       </c>
-      <c r="G35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="F37" t="s">
-        <v>104</v>
-      </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="I12:L13"/>
+  <mergeCells count="1">
+    <mergeCell ref="I14:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C9B28-2162-4F2B-872C-C3EC8A762DE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58DBB93-C17C-4913-8BD2-A79A7ABD47F8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -385,6 +385,39 @@
   </si>
   <si>
     <t>RULES</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>PARAMS</t>
+  </si>
+  <si>
+    <t>PARAMS_N</t>
+  </si>
+  <si>
+    <t>STATEMENT_N</t>
+  </si>
+  <si>
+    <t>STATEMENT</t>
+  </si>
+  <si>
+    <t>DEF_ARGS</t>
+  </si>
+  <si>
+    <t>DEFINE</t>
+  </si>
+  <si>
+    <t>ARGS</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>ARGS_N</t>
   </si>
   <si>
     <r>
@@ -408,7 +441,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> rule 15 for ID of user's function,
+      <t xml:space="preserve"> rule 16 for ID of user's function,
 </t>
     </r>
     <r>
@@ -432,41 +465,11 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> handle via precedent table for ID of a variable</t>
+      <t xml:space="preserve"> rule 17 for ID of a variable </t>
     </r>
   </si>
   <si>
-    <t>expression</t>
-  </si>
-  <si>
-    <t>PROG</t>
-  </si>
-  <si>
-    <t>PARAMS</t>
-  </si>
-  <si>
-    <t>PARAMS_N</t>
-  </si>
-  <si>
-    <t>STATEMENT_N</t>
-  </si>
-  <si>
-    <t>STATEMENT</t>
-  </si>
-  <si>
-    <t>DEF_ARGS</t>
-  </si>
-  <si>
-    <t>DEFINE</t>
-  </si>
-  <si>
-    <t>ARGS</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>ARGS_N</t>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -694,6 +697,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -712,11 +721,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,7 +1041,7 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,59 +1074,59 @@
       <c r="G1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1143,8 +1149,8 @@
       <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>120</v>
+      <c r="I2" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -1200,8 +1206,8 @@
       <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>121</v>
+      <c r="I3" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4">
@@ -1245,8 +1251,8 @@
       <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>123</v>
+      <c r="I4" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3">
@@ -1292,8 +1298,8 @@
       <c r="D5" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>124</v>
+      <c r="I5" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
@@ -1341,8 +1347,8 @@
       <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>122</v>
+      <c r="I6" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1386,8 +1392,8 @@
       <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>125</v>
+      <c r="I7" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
@@ -1441,12 +1447,12 @@
       <c r="G8" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>126</v>
+      <c r="I8" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>16</v>
+      <c r="K8" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1482,8 +1488,8 @@
       <c r="D9" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>127</v>
+      <c r="I9" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
@@ -1537,8 +1543,8 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>128</v>
+      <c r="I10" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
@@ -1586,8 +1592,8 @@
       <c r="G11" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>129</v>
+      <c r="I11" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1642,7 +1648,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -1658,12 +1664,12 @@
       <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
+      <c r="I14" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1681,10 +1687,10 @@
       <c r="G15" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">

--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C9B28-2162-4F2B-872C-C3EC8A762DE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C438ED-CF16-4731-B44E-91CE58B46B74}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="130">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -694,6 +694,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -711,12 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,59 +1068,59 @@
       <c r="G1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="12" t="s">
         <v>120</v>
       </c>
       <c r="J2" s="3">
@@ -1200,7 +1200,7 @@
       <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="12" t="s">
         <v>121</v>
       </c>
       <c r="J3" s="4"/>
@@ -1245,7 +1245,7 @@
       <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="12" t="s">
         <v>123</v>
       </c>
       <c r="J4" s="3"/>
@@ -1292,7 +1292,7 @@
       <c r="D5" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J5" s="4"/>
@@ -1341,7 +1341,7 @@
       <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J6" s="3"/>
@@ -1386,7 +1386,7 @@
       <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="12" t="s">
         <v>125</v>
       </c>
       <c r="J7" s="4"/>
@@ -1441,7 +1441,7 @@
       <c r="G8" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J8" s="3"/>
@@ -1482,7 +1482,7 @@
       <c r="D9" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="12" t="s">
         <v>127</v>
       </c>
       <c r="J9" s="4"/>
@@ -1537,7 +1537,7 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="12" t="s">
         <v>128</v>
       </c>
       <c r="J10" s="3"/>
@@ -1586,7 +1586,7 @@
       <c r="G11" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="12" t="s">
         <v>129</v>
       </c>
       <c r="J11" s="4"/>
@@ -1658,12 +1658,12 @@
       <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1681,10 +1681,10 @@
       <c r="G15" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">

--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C438ED-CF16-4731-B44E-91CE58B46B74}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C022D98-7C94-41CB-8F26-49576D0A38F3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -385,6 +385,42 @@
   </si>
   <si>
     <t>RULES</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>PARAMS</t>
+  </si>
+  <si>
+    <t>PARAMS_N</t>
+  </si>
+  <si>
+    <t>STATEMENT_N</t>
+  </si>
+  <si>
+    <t>STATEMENT</t>
+  </si>
+  <si>
+    <t>DEF_ARGS</t>
+  </si>
+  <si>
+    <t>DEFINE</t>
+  </si>
+  <si>
+    <t>ARGS</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>ARGS_N</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <r>
@@ -408,7 +444,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> rule 15 for ID of user's function,
+      <t xml:space="preserve"> rule 16 for ID of user's function,
 </t>
     </r>
     <r>
@@ -432,41 +468,8 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> handle via precedent table for ID of a variable</t>
+      <t xml:space="preserve"> rule 17 for ID of a variable</t>
     </r>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
-    <t>PROG</t>
-  </si>
-  <si>
-    <t>PARAMS</t>
-  </si>
-  <si>
-    <t>PARAMS_N</t>
-  </si>
-  <si>
-    <t>STATEMENT_N</t>
-  </si>
-  <si>
-    <t>STATEMENT</t>
-  </si>
-  <si>
-    <t>DEF_ARGS</t>
-  </si>
-  <si>
-    <t>DEFINE</t>
-  </si>
-  <si>
-    <t>ARGS</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>ARGS_N</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -717,6 +720,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,7 +1041,7 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="I14" sqref="I14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>13</v>
@@ -1144,7 +1150,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -1201,7 +1207,7 @@
         <v>115</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4">
@@ -1246,7 +1252,7 @@
         <v>51</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3">
@@ -1293,7 +1299,7 @@
         <v>74</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
@@ -1342,7 +1348,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1387,7 +1393,7 @@
         <v>69</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
@@ -1442,11 +1448,11 @@
         <v>74</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>16</v>
+      <c r="K8" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1483,7 +1489,7 @@
         <v>113</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
@@ -1538,7 +1544,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
@@ -1587,7 +1593,7 @@
         <v>74</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1642,7 +1648,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>39</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>

--- a/docs/LL_Table.xlsx
+++ b/docs/LL_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C022D98-7C94-41CB-8F26-49576D0A38F3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB998E0E-AFD2-4A45-B284-8D9A2A87E9AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{04AF779E-42B5-4928-B194-5F22BF2ACE98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="132">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -470,6 +470,9 @@
       </rPr>
       <t xml:space="preserve"> rule 17 for ID of a variable</t>
     </r>
+  </si>
+  <si>
+    <t>nil</t>
   </si>
 </sst>
 </file>
@@ -703,6 +706,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -720,9 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D8F368-A862-40F3-80B0-4AA651053DE9}">
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:L15"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1060,7 @@
     <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>29</v>
       </c>
@@ -1127,10 +1130,13 @@
         <v>56</v>
       </c>
       <c r="AA1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB1" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,11 +1189,12 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="3">
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1231,8 +1238,9 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1284,8 +1292,9 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1327,8 +1336,9 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1372,8 +1382,9 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="3"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -1426,9 +1437,12 @@
       <c r="Z7" s="4">
         <v>15</v>
       </c>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA7" s="4">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="4"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1465,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="13" t="s">
         <v>129</v>
       </c>
       <c r="L8" s="3"/>
@@ -1474,8 +1488,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1522,9 +1537,12 @@
       <c r="Z9" s="4">
         <v>21</v>
       </c>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA9" s="4">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1572,8 +1590,9 @@
         <v>27</v>
       </c>
       <c r="AA10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1619,8 +1638,9 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1631,7 +1651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -1648,7 +1668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -1664,14 +1684,14 @@
       <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1687,12 +1707,12 @@
       <c r="G15" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
